--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Translation Table</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>ログアウト</t>
+  </si>
+  <si>
+    <t>recover_password</t>
+  </si>
+  <si>
+    <t>Recover Password</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -189,6 +201,28 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -200,6 +234,24 @@
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -292,13 +344,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -314,37 +388,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1464,16 +1553,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.7344" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5547" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.2656" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1482,177 +1573,237 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="12">
         <v>6</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="15">
         <v>9</v>
       </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="15">
         <v>13</v>
       </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="A8" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="15">
         <v>17</v>
       </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="A9" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="15">
         <v>20</v>
       </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="15">
         <v>23</v>
       </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="A11" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="A12" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Translation Table</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Recover Password</t>
+  </si>
+  <si>
+    <t>送信</t>
   </si>
   <si>
     <t>cancel</t>
@@ -154,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -346,6 +349,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
@@ -372,7 +390,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -424,16 +442,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,118 +1713,122 @@
       <c r="B11" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" t="s" s="15">
+        <v>26</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s" s="14">
         <v>27</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="B12" t="s" s="17">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -29,10 +29,10 @@
     <t>login</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>ログイン</t>
+    <t>Login  ＞</t>
+  </si>
+  <si>
+    <t>ログイン  ＞</t>
   </si>
   <si>
     <t>email</t>
@@ -98,7 +98,7 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>Cancel</t>
+    <t>＜　Cancel</t>
   </si>
 </sst>
 </file>
@@ -406,19 +406,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -451,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Translation Table</t>
   </si>
@@ -99,6 +99,51 @@
   </si>
   <si>
     <t>＜　Cancel</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>error_header</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>connection_error</t>
+  </si>
+  <si>
+    <t>Connection error</t>
+  </si>
+  <si>
+    <t>failed_header</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>incorrect_password_error</t>
+  </si>
+  <si>
+    <t>Incorrect password</t>
+  </si>
+  <si>
+    <t>recover_password_alert_header</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>recover_password_alert_msg</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>alert_button_ok</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -390,7 +435,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -445,10 +490,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1727,108 +1775,136 @@
         <v>28</v>
       </c>
       <c r="C12" t="s" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
+      <c r="A13" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
+      <c r="A14" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
+      <c r="A15" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
+      <c r="A16" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="C18" s="18"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
+      <c r="A19" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Translation Table</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Login  ＞</t>
   </si>
   <si>
-    <t>ログイン  ＞</t>
+    <t>ログイン</t>
   </si>
   <si>
     <t>email</t>
@@ -74,7 +74,7 @@
     <t>Forgot Password ?</t>
   </si>
   <si>
-    <t>パスワードを忘れましたか？</t>
+    <t>パスワードを忘れた場合</t>
   </si>
   <si>
     <t>logout</t>
@@ -92,9 +92,6 @@
     <t>Recover Password</t>
   </si>
   <si>
-    <t>送信</t>
-  </si>
-  <si>
     <t>cancel</t>
   </si>
   <si>
@@ -110,34 +107,49 @@
     <t>Error</t>
   </si>
   <si>
+    <t>エラー</t>
+  </si>
+  <si>
     <t>connection_error</t>
   </si>
   <si>
     <t>Connection error</t>
   </si>
   <si>
+    <t>ネットワークエラー</t>
+  </si>
+  <si>
     <t>failed_header</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
+    <t>ログインできませんでした</t>
+  </si>
+  <si>
     <t>incorrect_password_error</t>
   </si>
   <si>
     <t>Incorrect password</t>
   </si>
   <si>
+    <t>パスワードが違います</t>
+  </si>
+  <si>
     <t>recover_password_alert_header</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>完了</t>
   </si>
   <si>
     <t>recover_password_alert_msg</t>
   </si>
   <si>
     <t>Sent</t>
+  </si>
+  <si>
+    <t>送信しました</t>
   </si>
   <si>
     <t>alert_button_ok</t>
@@ -153,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -174,6 +186,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="5">
@@ -435,7 +452,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,7 +489,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -481,22 +498,28 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1645,7 +1668,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
+    <row r="2" ht="20.5" customHeight="1">
       <c r="A2" t="s" s="7">
         <v>1</v>
       </c>
@@ -1658,7 +1681,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
+    <row r="3" ht="20.5" customHeight="1">
       <c r="A3" t="s" s="10">
         <v>4</v>
       </c>
@@ -1671,7 +1694,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
+    <row r="4" ht="20.25" customHeight="1">
       <c r="A4" t="s" s="13">
         <v>7</v>
       </c>
@@ -1684,16 +1707,16 @@
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
+    <row r="5" ht="20.25" customHeight="1">
       <c r="A5" t="s" s="13">
         <v>10</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
+    <row r="6" ht="20.25" customHeight="1">
       <c r="A6" t="s" s="13">
         <v>11</v>
       </c>
@@ -1706,16 +1729,16 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
+    <row r="7" ht="20.25" customHeight="1">
       <c r="A7" t="s" s="13">
         <v>14</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
+    <row r="8" ht="20.25" customHeight="1">
       <c r="A8" t="s" s="13">
         <v>15</v>
       </c>
@@ -1728,7 +1751,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
+    <row r="9" ht="20.25" customHeight="1">
       <c r="A9" t="s" s="13">
         <v>18</v>
       </c>
@@ -1741,7 +1764,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
+    <row r="10" ht="20.25" customHeight="1">
       <c r="A10" t="s" s="13">
         <v>21</v>
       </c>
@@ -1754,157 +1777,167 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
+    <row r="11" ht="20.25" customHeight="1">
       <c r="A11" t="s" s="13">
         <v>24</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="C11" t="s" s="15">
-        <v>26</v>
-      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
+    <row r="12" ht="20.25" customHeight="1">
       <c r="A12" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="B12" t="s" s="17">
+      <c r="C12" t="s" s="19">
         <v>28</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
+    <row r="13" ht="20.25" customHeight="1">
       <c r="A13" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="B13" t="s" s="14">
+      <c r="C13" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="C13" s="18"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
+    <row r="14" ht="20.25" customHeight="1">
       <c r="A14" t="s" s="13">
         <v>32</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" t="s" s="15">
+        <v>34</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s" s="15">
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="B15" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>37</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="C16" s="18"/>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="15">
+        <v>40</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" t="s" s="15">
+        <v>42</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="C18" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="C18" t="s" s="15">
+        <v>45</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
+    <row r="19" ht="20.25" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="C19" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>47</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="20"/>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" s="21"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="20"/>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" s="21"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="20"/>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" s="21"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="20"/>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" s="21"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="20"/>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" s="21"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="20"/>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" s="21"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="20"/>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" s="21"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -29,7 +29,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>Login  ＞</t>
+    <t>Login</t>
   </si>
   <si>
     <t>ログイン</t>
@@ -95,7 +95,7 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>＜　Cancel</t>
+    <t>Cancel</t>
   </si>
   <si>
     <t>戻る</t>

--- a/resources/wording.xlsx
+++ b/resources/wording.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Translation Table</t>
   </si>
@@ -29,7 +29,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>Login  ＞</t>
   </si>
   <si>
     <t>ログイン</t>
@@ -92,10 +92,13 @@
     <t>Recover Password</t>
   </si>
   <si>
+    <t>送信</t>
+  </si>
+  <si>
     <t>cancel</t>
   </si>
   <si>
-    <t>Cancel</t>
+    <t>＜　Cancel</t>
   </si>
   <si>
     <t>戻る</t>
@@ -138,6 +141,9 @@
   </si>
   <si>
     <t>recover_password_alert_header</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>完了</t>
@@ -1784,108 +1790,112 @@
       <c r="B11" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" t="s" s="17">
+        <v>26</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" ht="20.25" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="20.25" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="20.25" customHeight="1">
       <c r="A15" t="s" s="20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
       <c r="A16" t="s" s="20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B17" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>43</v>
+      </c>
       <c r="C17" t="s" s="15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.25" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
